--- a/files/timelog.xlsx
+++ b/files/timelog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter Miller\Desktop\Senior-Project\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Desktop\Senior-Project\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A6D224D-7DD4-4BE3-9F8E-1754A11E094C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA3F7ED-494C-404F-A7CE-D47D3ED99BCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20193" yWindow="813" windowWidth="7500" windowHeight="6627" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7935" yWindow="3120" windowWidth="18210" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Time Recording Log</t>
   </si>
@@ -55,6 +55,27 @@
   </si>
   <si>
     <t>Iteration</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added logo </t>
+  </si>
+  <si>
+    <t>updated logo sizes</t>
+  </si>
+  <si>
+    <t>about me page</t>
+  </si>
+  <si>
+    <t>Fixed experience text</t>
+  </si>
+  <si>
+    <t>Built connect 4 board</t>
+  </si>
+  <si>
+    <t>Total Time:</t>
   </si>
 </sst>
 </file>
@@ -101,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -113,6 +134,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -398,40 +431,45 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.41015625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.6">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1">
+        <f>SUM(D4:D44)</f>
+        <v>4.7500000000000018</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -455,15 +493,18 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.6">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>43865</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="str">
-        <f>IF(OR(ISBLANK(B4),ISBLANK(C4)),"",(C4-B4)*24*60-#REF!)</f>
-        <v/>
-      </c>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="3" t="str">
@@ -471,15 +512,18 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20" x14ac:dyDescent="0.6">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>43866</v>
+      </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="str">
-        <f>IF(OR(ISBLANK(B5),ISBLANK(C5)),"",(C5-B5)*24*60-#REF!)</f>
-        <v/>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="3" t="str">
@@ -487,15 +531,18 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.6">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>43867</v>
+      </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="str">
-        <f>IF(OR(ISBLANK(B6),ISBLANK(C6)),"",(C6-B6)*24*60-#REF!)</f>
-        <v/>
-      </c>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="3" t="str">
@@ -503,15 +550,18 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20" x14ac:dyDescent="0.6">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>43871</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="str">
-        <f>IF(OR(ISBLANK(B7),ISBLANK(C7)),"",(C7-B7)*24*60-#REF!)</f>
-        <v/>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="3" t="str">
@@ -519,15 +569,23 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20" x14ac:dyDescent="0.6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="str">
-        <f>IF(OR(ISBLANK(B8),ISBLANK(C8)),"",(C8-B8)*24*60-#REF!)</f>
-        <v/>
-      </c>
-      <c r="E8" s="1"/>
+    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>43872</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D8" s="1">
+        <f>IF(OR(ISBLANK(B8),ISBLANK(C8)),"",(C8-B8)*24)</f>
+        <v>1.0000000000000018</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="3" t="str">
@@ -535,15 +593,18 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20" x14ac:dyDescent="0.6">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>43873</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="str">
-        <f>IF(OR(ISBLANK(B9),ISBLANK(C9)),"",(C9-B9)*24*60-#REF!)</f>
-        <v/>
-      </c>
-      <c r="E9" s="1"/>
+      <c r="D9" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="3" t="str">
@@ -551,12 +612,12 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="20" x14ac:dyDescent="0.6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+    <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1" t="str">
-        <f>IF(OR(ISBLANK(B10),ISBLANK(C10)),"",(C10-B10)*24*60-#REF!)</f>
+      <c r="D10" s="6" t="str">
+        <f t="shared" ref="D9:D31" si="1">IF(OR(ISBLANK(B10),ISBLANK(C10)),"",(C10-B10)*24)</f>
         <v/>
       </c>
       <c r="E10" s="1"/>
@@ -567,12 +628,12 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1" t="str">
-        <f>IF(OR(ISBLANK(B11),ISBLANK(C11)),"",(C11-B11)*24*60-#REF!)</f>
+      <c r="D11" s="6" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E11" s="1"/>
@@ -583,12 +644,12 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1" t="str">
-        <f>IF(OR(ISBLANK(B12),ISBLANK(C12)),"",(C12-B12)*24*60-#REF!)</f>
+      <c r="D12" s="6" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E12" s="1"/>
@@ -599,12 +660,12 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="str">
-        <f>IF(OR(ISBLANK(B13),ISBLANK(C13)),"",(C13-B13)*24*60-#REF!)</f>
+      <c r="D13" s="6" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E13" s="1"/>
@@ -615,12 +676,12 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1" t="str">
-        <f>IF(OR(ISBLANK(B14),ISBLANK(C14)),"",(C14-B14)*24*60-#REF!)</f>
+      <c r="D14" s="6" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E14" s="1"/>
@@ -631,12 +692,12 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1" t="str">
-        <f>IF(OR(ISBLANK(B15),ISBLANK(C15)),"",(C15-B15)*24*60-#REF!)</f>
+      <c r="D15" s="6" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E15" s="1"/>
@@ -647,12 +708,12 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1" t="str">
-        <f>IF(OR(ISBLANK(B16),ISBLANK(C16)),"",(C16-B16)*24*60-#REF!)</f>
+      <c r="D16" s="6" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E16" s="1"/>
@@ -663,12 +724,12 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1" t="str">
-        <f>IF(OR(ISBLANK(B17),ISBLANK(C17)),"",(C17-B17)*24*60-#REF!)</f>
+      <c r="D17" s="6" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E17" s="1"/>
@@ -679,12 +740,12 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1" t="str">
-        <f>IF(OR(ISBLANK(B18),ISBLANK(C18)),"",(C18-B18)*24*60-#REF!)</f>
+      <c r="D18" s="6" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E18" s="1"/>
@@ -695,12 +756,12 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1" t="str">
-        <f>IF(OR(ISBLANK(B19),ISBLANK(C19)),"",(C19-B19)*24*60-#REF!)</f>
+      <c r="D19" s="6" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E19" s="1"/>
@@ -711,12 +772,12 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1" t="str">
-        <f>IF(OR(ISBLANK(B20),ISBLANK(C20)),"",(C20-B20)*24*60-#REF!)</f>
+      <c r="D20" s="6" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E20" s="1"/>
@@ -727,12 +788,12 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1" t="str">
-        <f>IF(OR(ISBLANK(B21),ISBLANK(C21)),"",(C21-B21)*24*60-#REF!)</f>
+      <c r="D21" s="6" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E21" s="1"/>
@@ -743,12 +804,12 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1" t="str">
-        <f>IF(OR(ISBLANK(B22),ISBLANK(C22)),"",(C22-B22)*24*60-#REF!)</f>
+      <c r="D22" s="6" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E22" s="1"/>
@@ -759,12 +820,12 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1" t="str">
-        <f>IF(OR(ISBLANK(B23),ISBLANK(C23)),"",(C23-B23)*24*60-#REF!)</f>
+      <c r="D23" s="6" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E23" s="1"/>
@@ -775,12 +836,12 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1" t="str">
-        <f>IF(OR(ISBLANK(B24),ISBLANK(C24)),"",(C24-B24)*24*60-#REF!)</f>
+      <c r="D24" s="6" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E24" s="1"/>
@@ -791,12 +852,12 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1" t="str">
-        <f>IF(OR(ISBLANK(B25),ISBLANK(C25)),"",(C25-B25)*24*60-#REF!)</f>
+      <c r="D25" s="6" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E25" s="1"/>
@@ -807,12 +868,12 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1" t="str">
-        <f>IF(OR(ISBLANK(B26),ISBLANK(C26)),"",(C26-B26)*24*60-#REF!)</f>
+      <c r="D26" s="6" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E26" s="1"/>
@@ -823,12 +884,12 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1" t="str">
-        <f>IF(OR(ISBLANK(B27),ISBLANK(C27)),"",(C27-B27)*24*60-#REF!)</f>
+      <c r="D27" s="6" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E27" s="1"/>
@@ -839,12 +900,12 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1" t="str">
-        <f>IF(OR(ISBLANK(B28),ISBLANK(C28)),"",(C28-B28)*24*60-#REF!)</f>
+      <c r="D28" s="6" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E28" s="1"/>
@@ -855,12 +916,12 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1" t="str">
-        <f>IF(OR(ISBLANK(B29),ISBLANK(C29)),"",(C29-B29)*24*60-#REF!)</f>
+      <c r="D29" s="6" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E29" s="1"/>
@@ -871,12 +932,12 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1" t="str">
-        <f>IF(OR(ISBLANK(B30),ISBLANK(C30)),"",(C30-B30)*24*60-#REF!)</f>
+      <c r="D30" s="6" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E30" s="1"/>
@@ -887,12 +948,12 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1" t="str">
-        <f>IF(OR(ISBLANK(B31),ISBLANK(C31)),"",(C31-B31)*24*60-#REF!)</f>
+      <c r="D31" s="6" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E31" s="1"/>
@@ -903,7 +964,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -919,7 +980,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -935,7 +996,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -951,7 +1012,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -967,7 +1028,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -983,7 +1044,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -999,7 +1060,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1015,7 +1076,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1031,7 +1092,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1047,7 +1108,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1063,7 +1124,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1079,7 +1140,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1095,7 +1156,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1111,7 +1172,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1127,7 +1188,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1143,7 +1204,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1159,7 +1220,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1175,7 +1236,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1191,7 +1252,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1207,7 +1268,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1223,7 +1284,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1239,7 +1300,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1255,7 +1316,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1271,7 +1332,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1287,7 +1348,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1303,7 +1364,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1319,7 +1380,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1335,7 +1396,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1351,7 +1412,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1367,7 +1428,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1383,7 +1444,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1399,7 +1460,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1415,7 +1476,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1431,7 +1492,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1447,7 +1508,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1463,7 +1524,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1479,7 +1540,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1491,11 +1552,11 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="3" t="str">
-        <f>IF(D68&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" ref="H68:H92" si="2">IF(D68&lt;0,"&lt;-- Invalid stop time","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1507,11 +1568,11 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="3" t="str">
-        <f>IF(D69&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1523,11 +1584,11 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="3" t="str">
-        <f>IF(D70&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1539,11 +1600,11 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="3" t="str">
-        <f>IF(D71&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1555,11 +1616,11 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="3" t="str">
-        <f>IF(D72&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1571,11 +1632,11 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="3" t="str">
-        <f>IF(D73&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1587,11 +1648,11 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="3" t="str">
-        <f>IF(D74&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1603,11 +1664,11 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="3" t="str">
-        <f>IF(D75&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1619,11 +1680,11 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="3" t="str">
-        <f>IF(D76&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1635,11 +1696,11 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="3" t="str">
-        <f>IF(D77&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1651,11 +1712,11 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="3" t="str">
-        <f>IF(D78&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1667,11 +1728,11 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="3" t="str">
-        <f>IF(D79&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1683,11 +1744,11 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="3" t="str">
-        <f>IF(D80&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1699,11 +1760,11 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="3" t="str">
-        <f>IF(D81&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1715,11 +1776,11 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="3" t="str">
-        <f>IF(D82&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1731,11 +1792,11 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="3" t="str">
-        <f>IF(D83&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1747,11 +1808,11 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="3" t="str">
-        <f>IF(D84&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1763,11 +1824,11 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="3" t="str">
-        <f>IF(D85&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1779,11 +1840,11 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="3" t="str">
-        <f>IF(D86&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1795,11 +1856,11 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="3" t="str">
-        <f>IF(D87&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1811,11 +1872,11 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="3" t="str">
-        <f>IF(D88&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1827,11 +1888,11 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="3" t="str">
-        <f>IF(D89&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1843,11 +1904,11 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="3" t="str">
-        <f>IF(D90&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1859,11 +1920,11 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="3" t="str">
-        <f>IF(D91&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1875,11 +1936,11 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="3" t="str">
-        <f>IF(D92&lt;0,"&lt;-- Invalid stop time","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.5">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -1889,7 +1950,7 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -1899,7 +1960,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>

--- a/files/timelog.xlsx
+++ b/files/timelog.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Desktop\Senior-Project\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA3F7ED-494C-404F-A7CE-D47D3ED99BCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6628A03-477B-4774-956F-4AF5261C2FCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7935" yWindow="3120" windowWidth="18210" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Record" sheetId="1" r:id="rId1"/>
+    <sheet name="Tasks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Time Recording Log</t>
   </si>
@@ -48,15 +49,9 @@
     <t>Delta</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Activity</t>
   </si>
   <si>
-    <t>Iteration</t>
-  </si>
-  <si>
     <t>logo</t>
   </si>
   <si>
@@ -76,13 +71,91 @@
   </si>
   <si>
     <t>Total Time:</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Connect 4 Game</t>
+  </si>
+  <si>
+    <t>Build Board</t>
+  </si>
+  <si>
+    <t>Make the buttons work</t>
+  </si>
+  <si>
+    <t>Format the game in CSS</t>
+  </si>
+  <si>
+    <t>Code the game logic</t>
+  </si>
+  <si>
+    <t>Connect 4 Computer</t>
+  </si>
+  <si>
+    <t>Feed computer board array</t>
+  </si>
+  <si>
+    <t>Write Mini Max Functinos</t>
+  </si>
+  <si>
+    <t>Write Score Function</t>
+  </si>
+  <si>
+    <t>Buttons for limit depth</t>
+  </si>
+  <si>
+    <t>get depth input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connect 4 Finish </t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Nim Game</t>
+  </si>
+  <si>
+    <t>Build the board</t>
+  </si>
+  <si>
+    <t>research nim sum</t>
+  </si>
+  <si>
+    <t>code the nim sum comp</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>Estimated Time</t>
+  </si>
+  <si>
+    <t>Remaing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,13 +174,50 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,19 +232,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -147,6 +252,34 @@
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,70 +564,72 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" style="9" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <f>SUM(D4:D44)</f>
-        <v>4.7500000000000018</v>
+        <v>5.3333333333333339</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <v>43865</v>
       </c>
       <c r="B4" s="1"/>
@@ -503,17 +638,17 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="3" t="str">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="str">
         <f t="shared" ref="H4:H67" si="0">IF(D4&lt;0,"&lt;-- Invalid stop time","")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>43866</v>
       </c>
       <c r="B5" s="1"/>
@@ -522,17 +657,17 @@
         <v>0.25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="3" t="str">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>43867</v>
       </c>
       <c r="B6" s="1"/>
@@ -541,17 +676,17 @@
         <v>0.25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="3" t="str">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <v>43871</v>
       </c>
       <c r="B7" s="1"/>
@@ -560,23 +695,23 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="3" t="str">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="5">
         <v>43872</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>0.83333333333333337</v>
       </c>
       <c r="D8" s="1">
@@ -584,62 +719,76 @@
         <v>1.0000000000000018</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <v>43873</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>0.25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="3" t="str">
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="6" t="str">
-        <f t="shared" ref="D9:D31" si="1">IF(OR(ISBLANK(B10),ISBLANK(C10)),"",(C10-B10)*24)</f>
-        <v/>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A10" s="5">
+        <v>43886</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.27430555555555552</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" ref="D10:D31" si="1">IF(OR(ISBLANK(B10),ISBLANK(C10)),"",(C10-B10)*24)</f>
+        <v>0.58333333333333259</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15">
+        <v>-0.57999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="6" t="str">
+      <c r="D11" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="3" t="str">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -648,14 +797,14 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="6" t="str">
+      <c r="D12" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="3" t="str">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -664,14 +813,14 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="6" t="str">
+      <c r="D13" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="3" t="str">
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -680,14 +829,14 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="6" t="str">
+      <c r="D14" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="3" t="str">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -696,14 +845,14 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="6" t="str">
+      <c r="D15" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="3" t="str">
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -712,14 +861,14 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="6" t="str">
+      <c r="D16" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="3" t="str">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -728,14 +877,14 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="6" t="str">
+      <c r="D17" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="3" t="str">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -744,14 +893,14 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="6" t="str">
+      <c r="D18" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="3" t="str">
+      <c r="G18" s="15"/>
+      <c r="H18" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -760,14 +909,14 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="6" t="str">
+      <c r="D19" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="3" t="str">
+      <c r="G19" s="15"/>
+      <c r="H19" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -776,14 +925,14 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="6" t="str">
+      <c r="D20" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="3" t="str">
+      <c r="G20" s="15"/>
+      <c r="H20" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -792,14 +941,14 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="6" t="str">
+      <c r="D21" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="3" t="str">
+      <c r="G21" s="15"/>
+      <c r="H21" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -808,14 +957,14 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="6" t="str">
+      <c r="D22" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="3" t="str">
+      <c r="G22" s="15"/>
+      <c r="H22" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -824,14 +973,14 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="6" t="str">
+      <c r="D23" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="3" t="str">
+      <c r="G23" s="15"/>
+      <c r="H23" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -840,14 +989,14 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="6" t="str">
+      <c r="D24" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="3" t="str">
+      <c r="G24" s="15"/>
+      <c r="H24" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -856,14 +1005,14 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="6" t="str">
+      <c r="D25" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="3" t="str">
+      <c r="G25" s="15"/>
+      <c r="H25" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -872,14 +1021,14 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="6" t="str">
+      <c r="D26" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="3" t="str">
+      <c r="G26" s="15"/>
+      <c r="H26" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -888,14 +1037,14 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="6" t="str">
+      <c r="D27" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="3" t="str">
+      <c r="G27" s="15"/>
+      <c r="H27" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -904,14 +1053,14 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="6" t="str">
+      <c r="D28" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="3" t="str">
+      <c r="G28" s="15"/>
+      <c r="H28" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -920,14 +1069,14 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="6" t="str">
+      <c r="D29" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="3" t="str">
+      <c r="G29" s="15"/>
+      <c r="H29" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -936,14 +1085,14 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="6" t="str">
+      <c r="D30" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="3" t="str">
+      <c r="G30" s="15"/>
+      <c r="H30" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -952,14 +1101,14 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="6" t="str">
+      <c r="D31" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="3" t="str">
+      <c r="G31" s="15"/>
+      <c r="H31" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -974,8 +1123,8 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="3" t="str">
+      <c r="G32" s="15"/>
+      <c r="H32" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -990,8 +1139,8 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="3" t="str">
+      <c r="G33" s="15"/>
+      <c r="H33" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1006,8 +1155,8 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="3" t="str">
+      <c r="G34" s="15"/>
+      <c r="H34" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1022,8 +1171,8 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="3" t="str">
+      <c r="G35" s="15"/>
+      <c r="H35" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1038,8 +1187,8 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="3" t="str">
+      <c r="G36" s="15"/>
+      <c r="H36" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1054,8 +1203,8 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="3" t="str">
+      <c r="G37" s="15"/>
+      <c r="H37" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1070,8 +1219,8 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="3" t="str">
+      <c r="G38" s="15"/>
+      <c r="H38" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1086,8 +1235,8 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="3" t="str">
+      <c r="G39" s="15"/>
+      <c r="H39" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1102,8 +1251,8 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="3" t="str">
+      <c r="G40" s="15"/>
+      <c r="H40" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1118,8 +1267,8 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="3" t="str">
+      <c r="G41" s="15"/>
+      <c r="H41" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1134,8 +1283,8 @@
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="3" t="str">
+      <c r="G42" s="15"/>
+      <c r="H42" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1150,8 +1299,8 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="3" t="str">
+      <c r="G43" s="15"/>
+      <c r="H43" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1166,8 +1315,8 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="3" t="str">
+      <c r="G44" s="15"/>
+      <c r="H44" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1182,8 +1331,8 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="3" t="str">
+      <c r="G45" s="15"/>
+      <c r="H45" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1198,8 +1347,8 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="3" t="str">
+      <c r="G46" s="15"/>
+      <c r="H46" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1214,8 +1363,8 @@
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="3" t="str">
+      <c r="G47" s="15"/>
+      <c r="H47" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1230,8 +1379,8 @@
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="3" t="str">
+      <c r="G48" s="15"/>
+      <c r="H48" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1246,8 +1395,8 @@
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="3" t="str">
+      <c r="G49" s="15"/>
+      <c r="H49" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1262,8 +1411,8 @@
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="3" t="str">
+      <c r="G50" s="15"/>
+      <c r="H50" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1278,8 +1427,8 @@
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="3" t="str">
+      <c r="G51" s="15"/>
+      <c r="H51" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1294,8 +1443,8 @@
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="3" t="str">
+      <c r="G52" s="15"/>
+      <c r="H52" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1310,8 +1459,8 @@
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="3" t="str">
+      <c r="G53" s="15"/>
+      <c r="H53" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1326,8 +1475,8 @@
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="3" t="str">
+      <c r="G54" s="15"/>
+      <c r="H54" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1342,8 +1491,8 @@
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="3" t="str">
+      <c r="G55" s="15"/>
+      <c r="H55" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1358,8 +1507,8 @@
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="3" t="str">
+      <c r="G56" s="15"/>
+      <c r="H56" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1374,8 +1523,8 @@
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="3" t="str">
+      <c r="G57" s="15"/>
+      <c r="H57" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1390,8 +1539,8 @@
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="3" t="str">
+      <c r="G58" s="15"/>
+      <c r="H58" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1406,8 +1555,8 @@
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="3" t="str">
+      <c r="G59" s="15"/>
+      <c r="H59" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1422,8 +1571,8 @@
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="3" t="str">
+      <c r="G60" s="15"/>
+      <c r="H60" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1438,8 +1587,8 @@
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="3" t="str">
+      <c r="G61" s="15"/>
+      <c r="H61" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1454,8 +1603,8 @@
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="3" t="str">
+      <c r="G62" s="15"/>
+      <c r="H62" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1470,8 +1619,8 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="3" t="str">
+      <c r="G63" s="15"/>
+      <c r="H63" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1486,8 +1635,8 @@
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="3" t="str">
+      <c r="G64" s="15"/>
+      <c r="H64" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1502,8 +1651,8 @@
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="3" t="str">
+      <c r="G65" s="15"/>
+      <c r="H65" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1518,8 +1667,8 @@
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="3" t="str">
+      <c r="G66" s="15"/>
+      <c r="H66" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1534,8 +1683,8 @@
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="3" t="str">
+      <c r="G67" s="15"/>
+      <c r="H67" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1550,8 +1699,8 @@
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="3" t="str">
+      <c r="G68" s="15"/>
+      <c r="H68" s="15" t="str">
         <f t="shared" ref="H68:H92" si="2">IF(D68&lt;0,"&lt;-- Invalid stop time","")</f>
         <v/>
       </c>
@@ -1566,8 +1715,8 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="3" t="str">
+      <c r="G69" s="15"/>
+      <c r="H69" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1582,8 +1731,8 @@
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="3" t="str">
+      <c r="G70" s="15"/>
+      <c r="H70" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1598,8 +1747,8 @@
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="3" t="str">
+      <c r="G71" s="15"/>
+      <c r="H71" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1614,8 +1763,8 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="3" t="str">
+      <c r="G72" s="15"/>
+      <c r="H72" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1630,8 +1779,8 @@
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="3" t="str">
+      <c r="G73" s="15"/>
+      <c r="H73" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1646,8 +1795,8 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="3" t="str">
+      <c r="G74" s="15"/>
+      <c r="H74" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1662,8 +1811,8 @@
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="3" t="str">
+      <c r="G75" s="15"/>
+      <c r="H75" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1678,8 +1827,8 @@
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="3" t="str">
+      <c r="G76" s="15"/>
+      <c r="H76" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1694,8 +1843,8 @@
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="3" t="str">
+      <c r="G77" s="15"/>
+      <c r="H77" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1710,8 +1859,8 @@
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="3" t="str">
+      <c r="G78" s="15"/>
+      <c r="H78" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1726,8 +1875,8 @@
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="3" t="str">
+      <c r="G79" s="15"/>
+      <c r="H79" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1742,8 +1891,8 @@
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="3" t="str">
+      <c r="G80" s="15"/>
+      <c r="H80" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1758,8 +1907,8 @@
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="3" t="str">
+      <c r="G81" s="15"/>
+      <c r="H81" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1774,8 +1923,8 @@
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="3" t="str">
+      <c r="G82" s="15"/>
+      <c r="H82" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1790,8 +1939,8 @@
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="3" t="str">
+      <c r="G83" s="15"/>
+      <c r="H83" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1806,8 +1955,8 @@
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="3" t="str">
+      <c r="G84" s="15"/>
+      <c r="H84" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1822,8 +1971,8 @@
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="3" t="str">
+      <c r="G85" s="15"/>
+      <c r="H85" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1838,8 +1987,8 @@
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="3" t="str">
+      <c r="G86" s="15"/>
+      <c r="H86" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1854,8 +2003,8 @@
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="3" t="str">
+      <c r="G87" s="15"/>
+      <c r="H87" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1870,8 +2019,8 @@
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="3" t="str">
+      <c r="G88" s="15"/>
+      <c r="H88" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1886,8 +2035,8 @@
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="3" t="str">
+      <c r="G89" s="15"/>
+      <c r="H89" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1902,8 +2051,8 @@
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="3" t="str">
+      <c r="G90" s="15"/>
+      <c r="H90" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1918,8 +2067,8 @@
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="3" t="str">
+      <c r="G91" s="15"/>
+      <c r="H91" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1934,41 +2083,41 @@
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="3" t="str">
+      <c r="G92" s="15"/>
+      <c r="H92" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1983,4 +2132,266 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCD2589-8504-46AD-8121-CEA1E833DC66}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1">
+        <f>SUM(D2:D21)</f>
+        <v>22.83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2">
+        <f>SUM(C3:C6)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>2</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7">
+        <f>SUM(C8:C12)</f>
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>4</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17">
+        <f>SUM(C18:C21)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/files/timelog.xlsx
+++ b/files/timelog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Desktop\Senior-Project\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter Miller\Desktop\Senior-Project\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6628A03-477B-4774-956F-4AF5261C2FCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC8F548-4375-4E29-B99B-AB300384E72C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Record" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Time Recording Log</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>Remaing</t>
+  </si>
+  <si>
+    <t>Setting up products</t>
+  </si>
+  <si>
+    <t>Added a products page</t>
   </si>
 </sst>
 </file>
@@ -253,16 +259,7 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -279,6 +276,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -564,32 +570,32 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.41015625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31" style="9" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="32.87890625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.5859375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -597,14 +603,14 @@
       </c>
       <c r="D2" s="1">
         <f>SUM(D4:D44)</f>
-        <v>5.3333333333333339</v>
+        <v>7.9333333333333336</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -621,14 +627,14 @@
         <v>5</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A4" s="5">
         <v>43865</v>
       </c>
@@ -641,13 +647,13 @@
         <v>6</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="str">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="str">
         <f t="shared" ref="H4:H67" si="0">IF(D4&lt;0,"&lt;-- Invalid stop time","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A5" s="5">
         <v>43866</v>
       </c>
@@ -660,13 +666,13 @@
         <v>7</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A6" s="5">
         <v>43867</v>
       </c>
@@ -679,13 +685,13 @@
         <v>8</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A7" s="5">
         <v>43871</v>
       </c>
@@ -698,13 +704,13 @@
         <v>9</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A8" s="5">
         <v>43872</v>
       </c>
@@ -724,14 +730,14 @@
       <c r="F8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="12">
         <v>1</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A9" s="5">
         <v>43873</v>
       </c>
@@ -744,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A10" s="5">
         <v>43886</v>
       </c>
@@ -770,46 +776,62 @@
       <c r="F10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="12">
         <v>1</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="12">
         <v>-0.57999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4" t="str">
+    <row r="11" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+      <c r="A11" s="5">
+        <v>43886</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E11" s="1"/>
+        <v>0.84999999999999964</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4" t="str">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+      <c r="A12" s="5">
+        <v>43887</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E12" s="1"/>
+        <v>1.7500000000000004</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -819,13 +841,13 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G13" s="12"/>
+      <c r="H13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -835,13 +857,13 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G14" s="12"/>
+      <c r="H14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -851,13 +873,13 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G15" s="12"/>
+      <c r="H15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -867,13 +889,13 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -883,13 +905,13 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -899,13 +921,13 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G18" s="12"/>
+      <c r="H18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -915,13 +937,13 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G19" s="12"/>
+      <c r="H19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -931,13 +953,13 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G20" s="12"/>
+      <c r="H20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -947,13 +969,13 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G21" s="12"/>
+      <c r="H21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -963,13 +985,13 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G22" s="12"/>
+      <c r="H22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -979,13 +1001,13 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G23" s="12"/>
+      <c r="H23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -995,13 +1017,13 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G24" s="12"/>
+      <c r="H24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1011,13 +1033,13 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G25" s="12"/>
+      <c r="H25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1027,13 +1049,13 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G26" s="12"/>
+      <c r="H26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1043,13 +1065,13 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G27" s="12"/>
+      <c r="H27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1059,13 +1081,13 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G28" s="12"/>
+      <c r="H28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1075,13 +1097,13 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G29" s="12"/>
+      <c r="H29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1091,13 +1113,13 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G30" s="12"/>
+      <c r="H30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1107,13 +1129,13 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G31" s="12"/>
+      <c r="H31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1123,13 +1145,13 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G32" s="12"/>
+      <c r="H32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1139,13 +1161,13 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G33" s="12"/>
+      <c r="H33" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1155,13 +1177,13 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G34" s="12"/>
+      <c r="H34" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1171,13 +1193,13 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G35" s="12"/>
+      <c r="H35" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1187,13 +1209,13 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G36" s="12"/>
+      <c r="H36" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1203,13 +1225,13 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G37" s="12"/>
+      <c r="H37" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1219,13 +1241,13 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G38" s="12"/>
+      <c r="H38" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1235,13 +1257,13 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G39" s="12"/>
+      <c r="H39" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1251,13 +1273,13 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G40" s="12"/>
+      <c r="H40" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1267,13 +1289,13 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G41" s="12"/>
+      <c r="H41" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1283,13 +1305,13 @@
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G42" s="12"/>
+      <c r="H42" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1299,13 +1321,13 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G43" s="12"/>
+      <c r="H43" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1315,13 +1337,13 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G44" s="12"/>
+      <c r="H44" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1331,13 +1353,13 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G45" s="12"/>
+      <c r="H45" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1347,13 +1369,13 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G46" s="12"/>
+      <c r="H46" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1363,13 +1385,13 @@
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G47" s="12"/>
+      <c r="H47" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1379,13 +1401,13 @@
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G48" s="12"/>
+      <c r="H48" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1395,13 +1417,13 @@
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G49" s="12"/>
+      <c r="H49" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1411,13 +1433,13 @@
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G50" s="12"/>
+      <c r="H50" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1427,13 +1449,13 @@
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G51" s="12"/>
+      <c r="H51" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1443,13 +1465,13 @@
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G52" s="12"/>
+      <c r="H52" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1459,13 +1481,13 @@
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G53" s="12"/>
+      <c r="H53" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1475,13 +1497,13 @@
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G54" s="12"/>
+      <c r="H54" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1491,13 +1513,13 @@
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G55" s="12"/>
+      <c r="H55" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1507,13 +1529,13 @@
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G56" s="12"/>
+      <c r="H56" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1523,13 +1545,13 @@
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G57" s="12"/>
+      <c r="H57" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1539,13 +1561,13 @@
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G58" s="12"/>
+      <c r="H58" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1555,13 +1577,13 @@
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G59" s="12"/>
+      <c r="H59" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1571,13 +1593,13 @@
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G60" s="12"/>
+      <c r="H60" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1587,13 +1609,13 @@
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G61" s="12"/>
+      <c r="H61" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1603,13 +1625,13 @@
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G62" s="12"/>
+      <c r="H62" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1619,13 +1641,13 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G63" s="12"/>
+      <c r="H63" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1635,13 +1657,13 @@
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G64" s="12"/>
+      <c r="H64" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1651,13 +1673,13 @@
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G65" s="12"/>
+      <c r="H65" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1667,13 +1689,13 @@
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G66" s="12"/>
+      <c r="H66" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1683,13 +1705,13 @@
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G67" s="12"/>
+      <c r="H67" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1699,13 +1721,13 @@
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15" t="str">
+      <c r="G68" s="12"/>
+      <c r="H68" s="12" t="str">
         <f t="shared" ref="H68:H92" si="2">IF(D68&lt;0,"&lt;-- Invalid stop time","")</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1715,13 +1737,13 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15" t="str">
+      <c r="G69" s="12"/>
+      <c r="H69" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1731,13 +1753,13 @@
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15" t="str">
+      <c r="G70" s="12"/>
+      <c r="H70" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1747,13 +1769,13 @@
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15" t="str">
+      <c r="G71" s="12"/>
+      <c r="H71" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1763,13 +1785,13 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15" t="str">
+      <c r="G72" s="12"/>
+      <c r="H72" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1779,13 +1801,13 @@
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15" t="str">
+      <c r="G73" s="12"/>
+      <c r="H73" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1795,13 +1817,13 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15" t="str">
+      <c r="G74" s="12"/>
+      <c r="H74" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1811,13 +1833,13 @@
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15" t="str">
+      <c r="G75" s="12"/>
+      <c r="H75" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1827,13 +1849,13 @@
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15" t="str">
+      <c r="G76" s="12"/>
+      <c r="H76" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1843,13 +1865,13 @@
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15" t="str">
+      <c r="G77" s="12"/>
+      <c r="H77" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1859,13 +1881,13 @@
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15" t="str">
+      <c r="G78" s="12"/>
+      <c r="H78" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1875,13 +1897,13 @@
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15" t="str">
+      <c r="G79" s="12"/>
+      <c r="H79" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1891,13 +1913,13 @@
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15" t="str">
+      <c r="G80" s="12"/>
+      <c r="H80" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1907,13 +1929,13 @@
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15" t="str">
+      <c r="G81" s="12"/>
+      <c r="H81" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1923,13 +1945,13 @@
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15" t="str">
+      <c r="G82" s="12"/>
+      <c r="H82" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1939,13 +1961,13 @@
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15" t="str">
+      <c r="G83" s="12"/>
+      <c r="H83" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1955,13 +1977,13 @@
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15" t="str">
+      <c r="G84" s="12"/>
+      <c r="H84" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1971,13 +1993,13 @@
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15" t="str">
+      <c r="G85" s="12"/>
+      <c r="H85" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1987,13 +2009,13 @@
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15" t="str">
+      <c r="G86" s="12"/>
+      <c r="H86" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2003,13 +2025,13 @@
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15" t="str">
+      <c r="G87" s="12"/>
+      <c r="H87" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2019,13 +2041,13 @@
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15" t="str">
+      <c r="G88" s="12"/>
+      <c r="H88" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2035,13 +2057,13 @@
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15" t="str">
+      <c r="G89" s="12"/>
+      <c r="H89" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2051,13 +2073,13 @@
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15" t="str">
+      <c r="G90" s="12"/>
+      <c r="H90" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2067,13 +2089,13 @@
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15" t="str">
+      <c r="G91" s="12"/>
+      <c r="H91" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2083,41 +2105,41 @@
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15" t="str">
+      <c r="G92" s="12"/>
+      <c r="H92" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2142,49 +2164,49 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="10"/>
+    <col min="2" max="2" width="25.29296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:5" ht="25.7" x14ac:dyDescent="0.85">
+      <c r="B1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="E1">
         <f>SUM(D2:D21)</f>
         <v>22.83</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.6">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="16"/>
       <c r="D2">
         <f>SUM(C3:C6)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B4" t="s">
@@ -2194,8 +2216,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B5" t="s">
@@ -2205,8 +2227,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B6" t="s">
@@ -2216,21 +2238,21 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.6">
+      <c r="A7" s="11">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="16"/>
       <c r="D7">
         <f>SUM(C8:C12)</f>
         <v>9.83</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B8" t="s">
@@ -2240,8 +2262,8 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B9" t="s">
@@ -2251,8 +2273,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B10" t="s">
@@ -2262,8 +2284,8 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B11" t="s">
@@ -2273,8 +2295,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
@@ -2284,17 +2306,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.6">
+      <c r="A13" s="11">
         <v>3</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A14" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B14" t="s">
@@ -2304,8 +2326,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A15" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B15" t="s">
@@ -2315,8 +2337,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A16" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B16" t="s">
@@ -2326,21 +2348,21 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.6">
+      <c r="A17" s="11">
         <v>4</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="16"/>
       <c r="D17">
         <f>SUM(C18:C21)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A18" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B18" t="s">
@@ -2350,8 +2372,8 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B19" t="s">
@@ -2361,8 +2383,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A20" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B20" t="s">
@@ -2372,8 +2394,8 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A21" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B21" t="s">

--- a/files/timelog.xlsx
+++ b/files/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter Miller\Desktop\Senior-Project\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC8F548-4375-4E29-B99B-AB300384E72C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119C4012-AC1B-41A1-81BA-F90FBBF616B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Time Recording Log</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Added a products page</t>
+  </si>
+  <si>
+    <t>Task</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G17" sqref="G17:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -626,7 +629,9 @@
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G3" s="13" t="s">
         <v>37</v>
       </c>

--- a/files/timelog.xlsx
+++ b/files/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter Miller\Desktop\Senior-Project\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119C4012-AC1B-41A1-81BA-F90FBBF616B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F56767-94D8-44F7-A7CB-473835C8743C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Time Recording Log</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>Task</t>
+  </si>
+  <si>
+    <t>Made buttons work</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>The buttons are finished</t>
   </si>
 </sst>
 </file>
@@ -573,7 +582,7 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G18"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -606,7 +615,7 @@
       </c>
       <c r="D2" s="1">
         <f>SUM(D4:D44)</f>
-        <v>7.9333333333333336</v>
+        <v>9.9166666666666679</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -837,35 +846,57 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" x14ac:dyDescent="0.6">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4" t="str">
+      <c r="A13" s="5">
+        <v>43893</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" x14ac:dyDescent="0.6">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4" t="str">
+      <c r="A14" s="5">
+        <v>43893</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.90833333333333333</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.94930555555555562</v>
+      </c>
+      <c r="D14" s="4">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>0.98333333333333517</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" x14ac:dyDescent="0.6">
@@ -2166,7 +2197,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2214,7 +2245,7 @@
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C4">

--- a/files/timelog.xlsx
+++ b/files/timelog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter Miller\Desktop\Senior-Project\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Desktop\Senior-Project\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F56767-94D8-44F7-A7CB-473835C8743C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96863D2A-1CA7-4FAB-B88A-DDF33B1A3B33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="735" windowWidth="22140" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Record" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Time Recording Log</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>The buttons are finished</t>
+  </si>
+  <si>
+    <t>hours</t>
   </si>
 </sst>
 </file>
@@ -582,20 +585,20 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.41015625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="32.87890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.5859375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -607,7 +610,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -617,12 +620,14 @@
         <f>SUM(D4:D44)</f>
         <v>9.9166666666666679</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -648,7 +653,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43865</v>
       </c>
@@ -667,7 +672,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43866</v>
       </c>
@@ -686,7 +691,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43867</v>
       </c>
@@ -705,7 +710,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43871</v>
       </c>
@@ -724,7 +729,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43872</v>
       </c>
@@ -751,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43873</v>
       </c>
@@ -770,7 +775,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43886</v>
       </c>
@@ -797,7 +802,7 @@
         <v>-0.57999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43886</v>
       </c>
@@ -821,7 +826,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43887</v>
       </c>
@@ -845,7 +850,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43893</v>
       </c>
@@ -872,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43893</v>
       </c>
@@ -899,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -915,7 +920,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -931,7 +936,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -947,7 +952,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -963,7 +968,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -979,7 +984,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -995,7 +1000,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1011,7 +1016,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1027,7 +1032,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1043,7 +1048,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1059,7 +1064,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1075,7 +1080,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1091,7 +1096,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1107,7 +1112,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1123,7 +1128,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1139,7 +1144,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1155,7 +1160,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1171,7 +1176,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1187,7 +1192,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1203,7 +1208,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1219,7 +1224,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1235,7 +1240,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1251,7 +1256,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1267,7 +1272,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1283,7 +1288,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1299,7 +1304,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1315,7 +1320,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1331,7 +1336,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1347,7 +1352,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1363,7 +1368,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1379,7 +1384,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1395,7 +1400,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1411,7 +1416,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1427,7 +1432,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1443,7 +1448,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1459,7 +1464,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1475,7 +1480,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1491,7 +1496,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1507,7 +1512,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1523,7 +1528,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1539,7 +1544,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1555,7 +1560,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1571,7 +1576,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1587,7 +1592,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1603,7 +1608,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1619,7 +1624,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1635,7 +1640,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1651,7 +1656,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1667,7 +1672,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1683,7 +1688,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1699,7 +1704,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1715,7 +1720,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1731,7 +1736,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1747,7 +1752,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1763,7 +1768,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1779,7 +1784,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1795,7 +1800,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1811,7 +1816,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1827,7 +1832,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1843,7 +1848,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1859,7 +1864,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1875,7 +1880,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1891,7 +1896,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1907,7 +1912,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1923,7 +1928,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1939,7 +1944,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1955,7 +1960,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1971,7 +1976,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1987,7 +1992,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2003,7 +2008,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2019,7 +2024,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2035,7 +2040,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2051,7 +2056,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2067,7 +2072,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2083,7 +2088,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2099,7 +2104,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2115,7 +2120,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2131,7 +2136,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2147,7 +2152,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2157,7 +2162,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2167,7 +2172,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2194,19 +2199,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCD2589-8504-46AD-8121-CEA1E833DC66}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1171875" style="10"/>
-    <col min="2" max="2" width="25.29296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.7" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="17" t="s">
         <v>13</v>
       </c>
@@ -2216,8 +2221,11 @@
         <f>SUM(D2:D21)</f>
         <v>22.83</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.6">
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2230,7 +2238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>31</v>
       </c>
@@ -2241,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -2252,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>33</v>
       </c>
@@ -2263,7 +2271,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>34</v>
       </c>
@@ -2274,7 +2282,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>2</v>
       </c>
@@ -2287,7 +2295,7 @@
         <v>9.83</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
@@ -2298,7 +2306,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
@@ -2309,7 +2317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
@@ -2320,7 +2328,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
@@ -2331,7 +2339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>35</v>
       </c>
@@ -2342,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>3</v>
       </c>
@@ -2351,7 +2359,7 @@
       </c>
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>31</v>
       </c>
@@ -2362,7 +2370,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>32</v>
       </c>
@@ -2373,7 +2381,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>33</v>
       </c>
@@ -2384,7 +2392,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>4</v>
       </c>
@@ -2397,7 +2405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>31</v>
       </c>
@@ -2408,7 +2416,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
@@ -2419,7 +2427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>33</v>
       </c>
@@ -2430,7 +2438,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>34</v>
       </c>

--- a/files/timelog.xlsx
+++ b/files/timelog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Desktop\Senior-Project\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter Miller\Desktop\Senior-Project\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96863D2A-1CA7-4FAB-B88A-DDF33B1A3B33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFF04E2-0AB5-48EA-BBED-C3F64D055E08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="735" windowWidth="22140" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Record" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Time Recording Log</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>hours</t>
+  </si>
+  <si>
+    <t>Finnished CheckWin</t>
+  </si>
+  <si>
+    <t>1d</t>
   </si>
 </sst>
 </file>
@@ -585,20 +591,20 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.41015625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.87890625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.5859375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -610,7 +616,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -618,7 +624,7 @@
       </c>
       <c r="D2" s="1">
         <f>SUM(D4:D44)</f>
-        <v>9.9166666666666679</v>
+        <v>11.166666666666668</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>45</v>
@@ -627,7 +633,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -653,7 +659,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A4" s="5">
         <v>43865</v>
       </c>
@@ -672,7 +678,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A5" s="5">
         <v>43866</v>
       </c>
@@ -691,7 +697,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A6" s="5">
         <v>43867</v>
       </c>
@@ -710,7 +716,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A7" s="5">
         <v>43871</v>
       </c>
@@ -729,7 +735,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A8" s="5">
         <v>43872</v>
       </c>
@@ -756,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A9" s="5">
         <v>43873</v>
       </c>
@@ -775,7 +781,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A10" s="5">
         <v>43886</v>
       </c>
@@ -802,7 +808,7 @@
         <v>-0.57999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A11" s="5">
         <v>43886</v>
       </c>
@@ -826,7 +832,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A12" s="5">
         <v>43887</v>
       </c>
@@ -850,7 +856,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A13" s="5">
         <v>43893</v>
       </c>
@@ -877,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A14" s="5">
         <v>43893</v>
       </c>
@@ -904,23 +910,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4" t="str">
+    <row r="15" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+      <c r="A15" s="5">
+        <v>43904</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.3125</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D15" s="4">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+        <v>1.2499999999999996</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -936,7 +952,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -952,7 +968,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -968,7 +984,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -984,7 +1000,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1000,7 +1016,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1016,7 +1032,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1032,7 +1048,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1048,7 +1064,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1064,7 +1080,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1080,7 +1096,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1096,7 +1112,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1112,7 +1128,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1128,7 +1144,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1144,7 +1160,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1160,7 +1176,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1176,7 +1192,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1192,7 +1208,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1208,7 +1224,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1224,7 +1240,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1240,7 +1256,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1256,7 +1272,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1272,7 +1288,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1288,7 +1304,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1304,7 +1320,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1320,7 +1336,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1336,7 +1352,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1352,7 +1368,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1368,7 +1384,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1384,7 +1400,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1400,7 +1416,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1416,7 +1432,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1432,7 +1448,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1448,7 +1464,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1464,7 +1480,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1480,7 +1496,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1496,7 +1512,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1512,7 +1528,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1528,7 +1544,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1544,7 +1560,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1560,7 +1576,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1576,7 +1592,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1592,7 +1608,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1608,7 +1624,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1624,7 +1640,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1640,7 +1656,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1656,7 +1672,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1672,7 +1688,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1688,7 +1704,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1704,7 +1720,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1720,7 +1736,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1736,7 +1752,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1752,7 +1768,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1768,7 +1784,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1784,7 +1800,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1800,7 +1816,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1816,7 +1832,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1832,7 +1848,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1848,7 +1864,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1864,7 +1880,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1880,7 +1896,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1896,7 +1912,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1912,7 +1928,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1928,7 +1944,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1944,7 +1960,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1960,7 +1976,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1976,7 +1992,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1992,7 +2008,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2008,7 +2024,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2024,7 +2040,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2040,7 +2056,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2056,7 +2072,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2072,7 +2088,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2088,7 +2104,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2104,7 +2120,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2120,7 +2136,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2136,7 +2152,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="20" x14ac:dyDescent="0.6">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2152,7 +2168,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2162,7 +2178,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2172,7 +2188,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2202,16 +2218,16 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="10"/>
+    <col min="2" max="2" width="25.29296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="25.7" x14ac:dyDescent="0.85">
       <c r="B1" s="17" t="s">
         <v>13</v>
       </c>
@@ -2225,7 +2241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.6">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2238,7 +2254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
         <v>31</v>
       </c>
@@ -2249,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -2260,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
         <v>33</v>
       </c>
@@ -2271,7 +2287,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
         <v>34</v>
       </c>
@@ -2282,7 +2298,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.6">
       <c r="A7" s="11">
         <v>2</v>
       </c>
@@ -2295,7 +2311,7 @@
         <v>9.83</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
@@ -2306,7 +2322,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
@@ -2317,7 +2333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
@@ -2328,7 +2344,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
@@ -2339,7 +2355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
         <v>35</v>
       </c>
@@ -2350,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.6">
       <c r="A13" s="11">
         <v>3</v>
       </c>
@@ -2359,7 +2375,7 @@
       </c>
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="10" t="s">
         <v>31</v>
       </c>
@@ -2370,7 +2386,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
         <v>32</v>
       </c>
@@ -2381,7 +2397,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="10" t="s">
         <v>33</v>
       </c>
@@ -2392,7 +2408,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.6">
       <c r="A17" s="11">
         <v>4</v>
       </c>
@@ -2405,7 +2421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="10" t="s">
         <v>31</v>
       </c>
@@ -2416,7 +2432,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
@@ -2427,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="10" t="s">
         <v>33</v>
       </c>
@@ -2438,7 +2454,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="10" t="s">
         <v>34</v>
       </c>

--- a/files/timelog.xlsx
+++ b/files/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter Miller\Desktop\Senior-Project\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFF04E2-0AB5-48EA-BBED-C3F64D055E08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA5F5DE-2262-4700-8134-905804E6B1E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>Time Recording Log</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>1d</t>
+  </si>
+  <si>
+    <t>Worked on game logic</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -624,7 +627,7 @@
       </c>
       <c r="D2" s="1">
         <f>SUM(D4:D44)</f>
-        <v>11.166666666666668</v>
+        <v>12.833333333333334</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>45</v>
@@ -930,26 +933,40 @@
       <c r="F15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G15" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="H15" s="12">
+        <f>G15-D15</f>
+        <v>2.2500000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" x14ac:dyDescent="0.6">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4" t="str">
+      <c r="A16" s="5">
+        <v>43905</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.59375</v>
+      </c>
+      <c r="D16" s="4">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>1.6666666666666661</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="H16" s="12">
+        <f>H15-D16</f>
+        <v>0.58333333333333437</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20" x14ac:dyDescent="0.6">

--- a/files/timelog.xlsx
+++ b/files/timelog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter Miller\Desktop\Senior-Project\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Desktop\Senior-Project\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA5F5DE-2262-4700-8134-905804E6B1E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E517DA1-FE2E-4AF3-B481-7194C9568718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="2295" windowWidth="22140" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Record" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>Time Recording Log</t>
   </si>
@@ -594,20 +594,20 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.41015625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="32.87890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.5859375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -627,7 +627,7 @@
       </c>
       <c r="D2" s="1">
         <f>SUM(D4:D44)</f>
-        <v>12.833333333333334</v>
+        <v>13.833333333333334</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>45</v>
@@ -636,7 +636,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -662,7 +662,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>43865</v>
       </c>
@@ -681,7 +681,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43866</v>
       </c>
@@ -700,7 +700,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43867</v>
       </c>
@@ -719,7 +719,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43871</v>
       </c>
@@ -738,7 +738,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43872</v>
       </c>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43873</v>
       </c>
@@ -784,7 +784,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43886</v>
       </c>
@@ -811,7 +811,7 @@
         <v>-0.57999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43886</v>
       </c>
@@ -835,7 +835,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43887</v>
       </c>
@@ -859,7 +859,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43893</v>
       </c>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43893</v>
       </c>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43904</v>
       </c>
@@ -941,7 +941,7 @@
         <v>2.2500000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43905</v>
       </c>
@@ -969,23 +969,30 @@
         <v>0.58333333333333437</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="20" x14ac:dyDescent="0.6">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>43906</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="H17" s="12">
+        <f>H16-1</f>
+        <v>-0.41666666666666563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1001,7 +1008,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1017,7 +1024,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1033,7 +1040,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1049,7 +1056,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1065,7 +1072,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1081,7 +1088,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1097,7 +1104,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1113,7 +1120,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1129,7 +1136,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1145,7 +1152,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1161,7 +1168,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1177,7 +1184,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1193,7 +1200,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1209,7 +1216,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1225,7 +1232,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1241,7 +1248,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1257,7 +1264,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1273,7 +1280,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1289,7 +1296,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1305,7 +1312,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1321,7 +1328,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1337,7 +1344,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1353,7 +1360,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1369,7 +1376,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1385,7 +1392,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1401,7 +1408,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1417,7 +1424,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1433,7 +1440,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1449,7 +1456,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1465,7 +1472,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1481,7 +1488,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1497,7 +1504,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1513,7 +1520,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1529,7 +1536,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1545,7 +1552,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1561,7 +1568,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1577,7 +1584,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1593,7 +1600,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1609,7 +1616,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1625,7 +1632,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1641,7 +1648,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1657,7 +1664,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1673,7 +1680,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1689,7 +1696,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1705,7 +1712,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1721,7 +1728,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1737,7 +1744,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1753,7 +1760,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1769,7 +1776,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1785,7 +1792,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1801,7 +1808,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1817,7 +1824,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1833,7 +1840,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1849,7 +1856,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1865,7 +1872,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1881,7 +1888,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1897,7 +1904,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1913,7 +1920,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1929,7 +1936,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1945,7 +1952,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1961,7 +1968,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1977,7 +1984,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1993,7 +2000,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2009,7 +2016,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2025,7 +2032,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2041,7 +2048,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2057,7 +2064,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2073,7 +2080,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2089,7 +2096,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2105,7 +2112,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2121,7 +2128,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2137,7 +2144,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2153,7 +2160,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2169,7 +2176,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="20" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2185,7 +2192,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2195,7 +2202,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2205,7 +2212,7 @@
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2238,13 +2245,13 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1171875" style="10"/>
-    <col min="2" max="2" width="25.29296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.7" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="17" t="s">
         <v>13</v>
       </c>
@@ -2258,7 +2265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2271,7 +2278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>31</v>
       </c>
@@ -2282,7 +2289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -2293,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>33</v>
       </c>
@@ -2304,7 +2311,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>34</v>
       </c>
@@ -2315,7 +2322,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>2</v>
       </c>
@@ -2328,7 +2335,7 @@
         <v>9.83</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
@@ -2339,7 +2346,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
@@ -2350,7 +2357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
@@ -2361,7 +2368,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
@@ -2372,7 +2379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>35</v>
       </c>
@@ -2383,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>3</v>
       </c>
@@ -2392,7 +2399,7 @@
       </c>
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>31</v>
       </c>
@@ -2403,7 +2410,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>32</v>
       </c>
@@ -2414,7 +2421,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>33</v>
       </c>
@@ -2425,7 +2432,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>4</v>
       </c>
@@ -2438,7 +2445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>31</v>
       </c>
@@ -2449,7 +2456,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
@@ -2460,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>33</v>
       </c>
@@ -2471,7 +2478,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>34</v>
       </c>

--- a/files/timelog.xlsx
+++ b/files/timelog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Desktop\Senior-Project\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E517DA1-FE2E-4AF3-B481-7194C9568718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A204F780-28A1-48A6-A156-CE5465B7A627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="2295" windowWidth="22140" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27720" yWindow="810" windowWidth="2040" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Record" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>Time Recording Log</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>Worked on game logic</t>
+  </si>
+  <si>
+    <t>Worked on alert functions</t>
+  </si>
+  <si>
+    <t>Finished alert functions</t>
   </si>
 </sst>
 </file>
@@ -594,7 +600,7 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +633,7 @@
       </c>
       <c r="D2" s="1">
         <f>SUM(D4:D44)</f>
-        <v>13.833333333333334</v>
+        <v>18.833333333333336</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>45</v>
@@ -993,14 +999,17 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="5">
+        <v>43907</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E18" s="1"/>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12" t="str">
@@ -1009,14 +1018,17 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="5">
+        <v>43911</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E19" s="1"/>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12" t="str">
@@ -1025,14 +1037,17 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
+      <c r="A20" s="5">
+        <v>43912</v>
+      </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E20" s="1"/>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12" t="str">
@@ -2242,7 +2257,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,7 +2319,7 @@
       <c r="A5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C5">
@@ -2315,7 +2330,7 @@
       <c r="A6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C6">
